--- a/raw/1938election.xlsx
+++ b/raw/1938election.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Dropbox/MyData/USvoting/historical voting/1920to1974/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA1EE6A-2D0F-8640-B922-3D955D085EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE71EF13-B269-204A-9026-753B4B168C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="17740" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7689,8 +7689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1131" zoomScale="215" workbookViewId="0">
-      <selection activeCell="D1147" sqref="D1147"/>
+    <sheetView tabSelected="1" zoomScale="215" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -7818,7 +7818,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>1893</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -7841,7 +7841,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>1893</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -7864,7 +7864,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>1893</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -7887,7 +7887,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>1893</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -7910,7 +7910,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>1893</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -7933,7 +7933,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>1893</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -7956,7 +7956,7 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>1893</v>
       </c>
       <c r="D12" t="s">
         <v>31</v>
@@ -7979,7 +7979,7 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>1893</v>
       </c>
       <c r="D13" t="s">
         <v>34</v>
@@ -8002,7 +8002,7 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>1893</v>
       </c>
       <c r="D14" t="s">
         <v>34</v>
@@ -8025,7 +8025,7 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>1893</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -8048,7 +8048,7 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>1893</v>
       </c>
       <c r="D16" t="s">
         <v>40</v>
@@ -8071,7 +8071,7 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>1893</v>
       </c>
       <c r="D17" t="s">
         <v>40</v>

--- a/raw/1938election.xlsx
+++ b/raw/1938election.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Dropbox/MyData/USvoting/historical voting/1920to1974/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE71EF13-B269-204A-9026-753B4B168C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3C2BAA-AB21-C142-95BB-2C0F6A8D6D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="17740" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6953" uniqueCount="2293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6952" uniqueCount="2293">
   <si>
     <t>State</t>
   </si>
@@ -7689,8 +7689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1285"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="215" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A1066" zoomScale="215" workbookViewId="0">
+      <selection activeCell="D1080" sqref="D1080"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -32241,8 +32241,8 @@
       <c r="C1079" t="s">
         <v>1893</v>
       </c>
-      <c r="D1079" t="s">
-        <v>57</v>
+      <c r="D1079">
+        <v>2</v>
       </c>
       <c r="E1079" t="s">
         <v>1642</v>
